--- a/toolbox_data/matrices/pp_matrix.xlsx
+++ b/toolbox_data/matrices/pp_matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27520" windowHeight="21440" tabRatio="500"/>
+    <workbookView xWindow="1380" yWindow="0" windowWidth="27520" windowHeight="21440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="pp_import_matrix.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="181">
   <si>
     <t>Node level</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Magnification</t>
   </si>
   <si>
-    <t>Reported taxon name</t>
-  </si>
-  <si>
     <t>Taxonomist</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>PP export</t>
-  </si>
-  <si>
     <t>SDATE</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
     <t>UNIT</t>
   </si>
   <si>
-    <t>PP import</t>
-  </si>
-  <si>
     <t>$Text('MYEAR')</t>
   </si>
   <si>
@@ -420,15 +411,6 @@
     <t>$Float('WADEP')</t>
   </si>
   <si>
-    <t>Value float</t>
-  </si>
-  <si>
-    <t>VALUE FLOAT</t>
-  </si>
-  <si>
-    <t>$Float('COUNTNR') / 1000</t>
-  </si>
-  <si>
     <t>copyVariable()</t>
   </si>
   <si>
@@ -444,15 +426,9 @@
     <t>toPosition()</t>
   </si>
   <si>
-    <t>$Text('LATIT'), $Text('LONGI')</t>
-  </si>
-  <si>
     <t>Station.name</t>
   </si>
   <si>
-    <t>Station.reported name</t>
-  </si>
-  <si>
     <t>toStation()</t>
   </si>
   <si>
@@ -489,9 +465,6 @@
     <t>$Sizeclass($Text('LATNM'), $Text('SIZCL'), key=u'Calculated volume, µm3')</t>
   </si>
   <si>
-    <t>PEG trophy</t>
-  </si>
-  <si>
     <t>PEG_TROPHY</t>
   </si>
   <si>
@@ -507,22 +480,88 @@
     <t>PEG_VOLUME</t>
   </si>
   <si>
-    <t>Dyntaxa class</t>
-  </si>
-  <si>
     <t>DT_CLASS</t>
   </si>
   <si>
     <t>$Species($Text('LATNM'), key=u'Class')</t>
   </si>
   <si>
-    <t>#Variable</t>
-  </si>
-  <si>
     <t>REP_LATIT</t>
   </si>
   <si>
     <t>### FUNCTION Visit</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Kingdom</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>$Species($Text('LATNM'), key=u'Kingdom')</t>
+  </si>
+  <si>
+    <t>$Species($Text('LATNM'), key=u'Phylum')</t>
+  </si>
+  <si>
+    <t>$Species($Text('LATNM'), key=u'Order')</t>
+  </si>
+  <si>
+    <t>$Species($Text('LATNM'), key=u'Family')</t>
+  </si>
+  <si>
+    <t>$Species($Text('LATNM'), key=u'Genus')</t>
+  </si>
+  <si>
+    <t>$Species($Text('LATNM'), key=u'Species')</t>
+  </si>
+  <si>
+    <t>DT_KINGDOM</t>
+  </si>
+  <si>
+    <t>DT_PHYLUM</t>
+  </si>
+  <si>
+    <t>DT_ORDER</t>
+  </si>
+  <si>
+    <t>DT_FAMILY</t>
+  </si>
+  <si>
+    <t>DT_GENUS</t>
+  </si>
+  <si>
+    <t>DT_SPECIES</t>
+  </si>
+  <si>
+    <t>PP export 2</t>
+  </si>
+  <si>
+    <t>PP export 1</t>
+  </si>
+  <si>
+    <t>Station name</t>
+  </si>
+  <si>
+    <t>Taxon name</t>
+  </si>
+  <si>
+    <t>PP import 1</t>
   </si>
 </sst>
 </file>
@@ -571,8 +610,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -652,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="87">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -690,6 +741,12 @@
     <cellStyle name="Följd hyperlänk" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -727,6 +784,12 @@
     <cellStyle name="Hyperlänk" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1056,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1072,10 +1135,10 @@
     <col min="6" max="6" width="6" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="67.5" customWidth="1"/>
     <col min="8" max="8" width="52.33203125" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="9" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,61 +1158,67 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1158,10 +1227,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1180,153 +1249,162 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
-        <v>141</v>
-      </c>
       <c r="H15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1334,67 +1412,61 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="G21" t="s">
-        <v>94</v>
-      </c>
       <c r="H21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" t="s">
-        <v>95</v>
-      </c>
       <c r="H24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1402,7 +1474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1410,16 +1482,19 @@
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1427,67 +1502,61 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>57</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="G28" t="s">
-        <v>98</v>
-      </c>
       <c r="H28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
-        <v>99</v>
-      </c>
       <c r="H29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="G30" t="s">
-        <v>100</v>
-      </c>
       <c r="H30" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>97</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1495,33 +1564,33 @@
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
-      <c r="G32" t="s">
-        <v>102</v>
-      </c>
       <c r="H32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1529,16 +1598,19 @@
         <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1546,50 +1618,47 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="G35" t="s">
-        <v>103</v>
-      </c>
       <c r="H35" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="G37" t="s">
-        <v>106</v>
-      </c>
       <c r="H37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1597,16 +1666,19 @@
         <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1614,23 +1686,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1638,16 +1710,19 @@
         <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1655,16 +1730,19 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1672,16 +1750,19 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1689,16 +1770,19 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1706,16 +1790,19 @@
         <v>39</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -1723,190 +1810,208 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s">
         <v>114</v>
       </c>
-      <c r="H47" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s">
         <v>115</v>
       </c>
-      <c r="H48" t="s">
-        <v>115</v>
-      </c>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" t="s">
-        <v>117</v>
-      </c>
-      <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" t="s">
-        <v>118</v>
-      </c>
-      <c r="H52" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="G53" t="s">
-        <v>108</v>
-      </c>
       <c r="H53" t="s">
-        <v>108</v>
-      </c>
-      <c r="I53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>29</v>
       </c>
       <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="G56" t="s">
+        <v>117</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" t="s">
+        <v>164</v>
+      </c>
+      <c r="I58" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s">
-        <v>122</v>
-      </c>
-      <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" t="s">
-        <v>162</v>
-      </c>
-      <c r="G59" t="s">
-        <v>164</v>
-      </c>
       <c r="I59" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>29</v>
       </c>
@@ -1914,43 +2019,131 @@
         <v>160</v>
       </c>
       <c r="G61" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I61" t="s">
+        <v>172</v>
+      </c>
+      <c r="J61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="G62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="I63" t="s">
+        <v>174</v>
+      </c>
+      <c r="J63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" t="s">
+        <v>169</v>
+      </c>
+      <c r="I64" t="s">
+        <v>175</v>
+      </c>
+      <c r="J64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="G67" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="I65" t="s">
+        <v>148</v>
+      </c>
+      <c r="J65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+      <c r="I66" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/toolbox_data/matrices/pp_matrix.xlsx
+++ b/toolbox_data/matrices/pp_matrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
   <si>
     <t>Node level</t>
   </si>
@@ -562,6 +562,18 @@
   </si>
   <si>
     <t>PP import 1</t>
+  </si>
+  <si>
+    <t>Header row</t>
+  </si>
+  <si>
+    <t>First data row</t>
+  </si>
+  <si>
+    <t>First column</t>
+  </si>
+  <si>
+    <t>Excel sheet name</t>
   </si>
 </sst>
 </file>
@@ -610,8 +622,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -703,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="91">
     <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
@@ -747,6 +763,8 @@
     <cellStyle name="Följd hyperlänk" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Följd hyperlänk" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
@@ -790,6 +808,8 @@
     <cellStyle name="Hyperlänk" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1119,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1218,94 +1238,68 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
-        <v>83</v>
+        <v>182</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" t="s">
-        <v>144</v>
+        <v>183</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1313,33 +1307,27 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1347,21 +1335,30 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" t="s">
-        <v>50</v>
+        <v>136</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1369,19 +1366,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1389,39 +1374,33 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1429,13 +1408,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1443,89 +1419,98 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="J22" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1533,13 +1518,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1547,13 +1532,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1561,19 +1540,19 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1581,13 +1560,19 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1595,19 +1580,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1615,19 +1594,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1635,71 +1608,101 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1707,19 +1710,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="J42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1727,19 +1724,19 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1747,19 +1744,7 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1767,59 +1752,35 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>29</v>
       </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" t="s">
-        <v>110</v>
-      </c>
-      <c r="H46" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1827,19 +1788,19 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H48" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1847,38 +1808,59 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>29</v>
       </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
       </c>
       <c r="J51" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1886,13 +1868,19 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="G52" t="s">
+        <v>111</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
       </c>
       <c r="J52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1900,47 +1888,58 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>179</v>
+      </c>
+      <c r="G53" t="s">
+        <v>112</v>
       </c>
       <c r="H53" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>29</v>
       </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-      <c r="J55" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
       </c>
       <c r="J56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -1948,16 +1947,13 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" t="s">
-        <v>119</v>
-      </c>
-      <c r="I57" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="H57" t="s">
+        <v>115</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -1965,33 +1961,13 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" t="s">
-        <v>164</v>
-      </c>
-      <c r="I58" t="s">
-        <v>170</v>
+        <v>34</v>
+      </c>
+      <c r="H58" t="s">
+        <v>105</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" t="s">
-        <v>159</v>
-      </c>
-      <c r="G59" t="s">
-        <v>165</v>
-      </c>
-      <c r="I59" t="s">
-        <v>171</v>
-      </c>
-      <c r="J59" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -1999,16 +1975,16 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" t="s">
-        <v>154</v>
+        <v>44</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="I60" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2016,16 +1992,16 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="I61" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2033,16 +2009,16 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="I62" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2050,16 +2026,16 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I63" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J63" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2067,16 +2043,16 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2084,16 +2060,16 @@
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I65" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2101,48 +2077,133 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="I66" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="J66" t="s">
-        <v>152</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" t="s">
+        <v>167</v>
+      </c>
+      <c r="I67" t="s">
+        <v>173</v>
+      </c>
+      <c r="J67" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>146</v>
+        <v>168</v>
+      </c>
+      <c r="I68" t="s">
+        <v>174</v>
+      </c>
+      <c r="J68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" t="s">
+        <v>169</v>
+      </c>
+      <c r="I69" t="s">
+        <v>175</v>
+      </c>
+      <c r="J69" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" t="s">
+        <v>149</v>
+      </c>
+      <c r="I70" t="s">
+        <v>148</v>
+      </c>
+      <c r="J70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" t="s">
+        <v>152</v>
+      </c>
+      <c r="J71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
         <v>132</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>130</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
         <v>156</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
         <v>131</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G77" t="s">
         <v>145</v>
       </c>
     </row>
